--- a/biology/Zoologie/Faune_endémique_de_La_Réunion/Faune_endémique_de_La_Réunion.xlsx
+++ b/biology/Zoologie/Faune_endémique_de_La_Réunion/Faune_endémique_de_La_Réunion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme beaucoup d'îles voisines telles que Madagascar, La Réunion présente un fort taux d'endémisme, même animal.
 Voici une liste des espèces animales endémiques de La Réunion, dont les noms scientifiques sont classés selon l'ordre alphabétique. Attention, cette liste n'est pas exhaustive et demande à être complétée.
@@ -521,7 +533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,7 +551,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aedes dufouri - Culicidae.
 Alopochen kervazoi - Ouette de La Réunion, éteinte.
@@ -555,7 +569,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -573,7 +587,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Caldwellia imperfecta.
 Callionymus aagilis.
@@ -595,7 +611,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -613,7 +629,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dryolimnas augusti - Râle de La Réunion. éteint
 Dupontia maillardi.
@@ -627,7 +645,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,7 +663,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Erepta setiliris -  gastéropode
 Erinna carinata  - gastéropode d'eau douce
@@ -660,7 +680,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,7 +698,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Falco duboisi - Crécerelle de Dubois, éteinte.
 Fregilupus varius - Étourneau de Bourbon, éteint.
@@ -692,7 +714,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -710,7 +732,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Gastrocopta eudelighhb
 Gibbulinopsis pupula.
@@ -722,7 +746,7 @@
 Gonospira turgidula - gastéropode
 Gonospira uvula - gastéropode
 Gulella antelmeana - gastéropode
-Gonospira versipolis - gastéropode [1]
+Gonospira versipolis - gastéropode 
 Gulella argoudi, éteint ?
 Gymnogaster buphthalmus.</t>
         </is>
@@ -734,7 +758,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -752,7 +776,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Harmogenanina argentea - gastéropode
 Harmogenanina detecta - gastéropode - danger d'extinction imminente.
@@ -768,7 +794,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -786,7 +812,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Lantzia carinata (syn.Erinna carinata) - gastéropode, danger d'extinction imminente.</t>
         </is>
@@ -798,7 +826,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -816,7 +844,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Madgeaconcha gerlachi - gastéropode
 Malagarion borbonica, éteint.
@@ -835,7 +865,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -853,7 +883,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Necropsittacus borbonicus - Perroquet rouge et vert, éteint.
 Neptis dumetorum
@@ -874,7 +906,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -892,7 +924,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Orthopodomyia reunionensis Culicidae
 Oryctes borbonicus - Rhinocéros de Bourbon.
@@ -915,7 +949,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -933,7 +967,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Pachystyla bicolor, éteint.
 Papilio phorbanta - Papillon La Pâture.
@@ -944,7 +980,7 @@
 'Piletocera reunionalis - un papillon nocturne
 Piletocera viperalis - un papillon nocturne
 Pilula cordemoyi. - gastéropode
-Pilula praetumida - gastéropode - éteint[2]
+Pilula praetumida - gastéropode - éteint
 Plegma caelatura
 Porphyrio coerulescens - Talève de La Réunion, éteint.
 Psittacula eques - Perruche verte de La Réunion, éteinte.
@@ -960,7 +996,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -978,7 +1014,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Raphus solitarius - Solitaire de La Réunion, éteint.</t>
         </is>
@@ -990,7 +1028,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1008,7 +1046,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Salamis augustina - Salamide d'Augustine.
 Saxicola tectes - Tec-tec, protégé.
@@ -1025,7 +1065,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1043,7 +1083,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Terpsiphone bourbonnensis - Oiseau la Vierge, protégé.
 Trogloctenus briali.
@@ -1058,7 +1100,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1076,7 +1118,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Unio cariei, (mollusque gastéropode d'eau douce), éteint.
 Upeneus mascareinsis.</t>
@@ -1089,7 +1133,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1107,7 +1151,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Xeinostoma inopinatum.</t>
         </is>
@@ -1119,7 +1165,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Faune_end%C3%A9mique_de_La_R%C3%A9union</t>
+          <t>Faune_endémique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1137,7 +1183,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Zosterops borbonicus - Oiseau blanc, protégé.
 Zosterops olivaceus - Oiseau vert, protégé.</t>
